--- a/data/management/Management_information_RHH_2017.xlsx
+++ b/data/management/Management_information_RHH_2017.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Downloads/New_Management/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication_2/data/management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C473E57D-D310-5E4A-B161-45CE7AA696D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89D8FE3-E7DF-C442-A318-81E92D4B9268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="83">
   <si>
     <t xml:space="preserve">Correspondence </t>
   </si>
@@ -262,9 +262,6 @@
     <t>(kg/ha)</t>
   </si>
   <si>
-    <t>Sowing date: 2016-10-21</t>
-  </si>
-  <si>
     <t>UAN</t>
   </si>
   <si>
@@ -272,9 +269,6 @@
   </si>
   <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>Harvest date:</t>
   </si>
 </sst>
 </file>
@@ -790,10 +784,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1175,13 +1169,13 @@
         <v>50</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -1204,13 +1198,13 @@
         <v>20</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -1402,7 +1396,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>9</v>
@@ -1414,13 +1408,13 @@
         <v>50</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
@@ -1431,7 +1425,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>10</v>
@@ -1443,13 +1437,13 @@
         <v>20</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
@@ -1460,7 +1454,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>11</v>
@@ -1481,7 +1475,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>12</v>
@@ -1502,7 +1496,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -1521,7 +1515,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -1540,7 +1534,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -1557,7 +1551,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -1574,7 +1568,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -1650,13 +1644,13 @@
         <v>50</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
@@ -1679,13 +1673,13 @@
         <v>70</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
@@ -1708,13 +1702,13 @@
         <v>60</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
@@ -1737,7 +1731,7 @@
         <v>17</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
@@ -1758,7 +1752,7 @@
         <v>18</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
@@ -1779,7 +1773,7 @@
         <v>19</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
@@ -1800,7 +1794,7 @@
         <v>20</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
@@ -1819,7 +1813,7 @@
         <v>21</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
@@ -1838,7 +1832,7 @@
         <v>22</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
@@ -1894,13 +1888,13 @@
         <v>50</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
@@ -1923,13 +1917,13 @@
         <v>70</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
@@ -1952,13 +1946,13 @@
         <v>60</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
@@ -1981,7 +1975,7 @@
         <v>17</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
@@ -2002,7 +1996,7 @@
         <v>18</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
@@ -2023,7 +2017,7 @@
         <v>19</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
@@ -2044,7 +2038,7 @@
         <v>20</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
@@ -2063,7 +2057,7 @@
         <v>21</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
@@ -2082,22 +2076,12 @@
         <v>22</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>84</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0.78740157480314965" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/data/management/Management_information_RHH_2017.xlsx
+++ b/data/management/Management_information_RHH_2017.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication_2/data/management/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Seafile\Tien-Che_1\My Libraries\PhD_Tien\Project\Briwecs\BRIWECS_Data_Publication\data\management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89D8FE3-E7DF-C442-A318-81E92D4B9268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="38400" windowHeight="21105"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="83">
   <si>
     <t xml:space="preserve">Correspondence </t>
   </si>
@@ -274,7 +273,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -495,9 +494,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -535,9 +534,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -572,7 +571,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -607,7 +606,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -780,35 +779,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K86"/>
+  <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J99" sqref="J99"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.5" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="49.5" customWidth="1"/>
-    <col min="6" max="6" width="33.83203125" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="20.83203125" customWidth="1"/>
-    <col min="11" max="11" width="36.5" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+    <col min="5" max="5" width="49.42578125" customWidth="1"/>
+    <col min="6" max="6" width="33.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -816,7 +815,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -824,25 +823,25 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -850,7 +849,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -858,7 +857,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -866,37 +865,37 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="12" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -904,21 +903,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -927,7 +926,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
@@ -936,7 +935,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -945,14 +944,14 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -961,7 +960,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
@@ -970,42 +969,42 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -1014,14 +1013,14 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>67</v>
       </c>
@@ -1033,7 +1032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
@@ -1045,7 +1044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>49</v>
       </c>
@@ -1053,7 +1052,7 @@
       <c r="C35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>50</v>
       </c>
@@ -1063,7 +1062,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>52</v>
       </c>
@@ -1073,7 +1072,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>53</v>
       </c>
@@ -1083,7 +1082,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
@@ -1095,7 +1094,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>54</v>
       </c>
@@ -1105,7 +1104,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>69</v>
       </c>
@@ -1120,7 +1119,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>55</v>
       </c>
@@ -1155,7 +1154,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -1184,7 +1183,7 @@
       </c>
       <c r="K44" s="8"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -1213,7 +1212,7 @@
       </c>
       <c r="K45" s="8"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -1234,7 +1233,7 @@
       </c>
       <c r="K46" s="8"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -1255,7 +1254,7 @@
       </c>
       <c r="K47" s="8"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -1274,7 +1273,7 @@
       </c>
       <c r="K48" s="8"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -1293,7 +1292,7 @@
       </c>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -1310,7 +1309,7 @@
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -1327,7 +1326,7 @@
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -1344,74 +1343,88 @@
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
     </row>
-    <row r="54" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="9" t="s">
+    <row r="54" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B54" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D54" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E54" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F54" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G55" s="10" t="s">
+      <c r="G54" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H55" s="10" t="s">
+      <c r="H54" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I55" s="10" t="s">
+      <c r="I54" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J55" s="10" t="s">
+      <c r="J54" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="K55" s="10" t="s">
+      <c r="K54" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="11">
+        <v>42807</v>
+      </c>
+      <c r="D55" s="6">
+        <v>50</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K55" s="8"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>81</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C56" s="11">
-        <v>42807</v>
+        <v>42835</v>
       </c>
       <c r="D56" s="6">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>82</v>
@@ -1419,82 +1432,72 @@
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
       <c r="J56" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K56" s="8"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>81</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="11">
-        <v>42835</v>
-      </c>
-      <c r="D57" s="6">
-        <v>20</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>80</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="12"/>
       <c r="F57" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>82</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" s="7"/>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
       <c r="J57" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K57" s="8"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>81</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="C58" s="6"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="12"/>
+      <c r="E58" s="6"/>
       <c r="F58" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
       <c r="J58" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K58" s="8"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
       <c r="J59" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K59" s="8"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>81</v>
       </c>
@@ -1503,17 +1506,17 @@
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
       <c r="J60" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K60" s="8"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>81</v>
       </c>
@@ -1522,17 +1525,15 @@
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
-      <c r="J61" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="J61" s="8"/>
       <c r="K61" s="8"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>81</v>
       </c>
@@ -1541,7 +1542,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
@@ -1549,7 +1550,7 @@
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -1558,7 +1559,7 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
@@ -1566,88 +1567,100 @@
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>81</v>
-      </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-    </row>
-    <row r="66" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="9" t="s">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+    </row>
+    <row r="65" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B65" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D65" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E65" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="10" t="s">
+      <c r="F65" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G66" s="10" t="s">
+      <c r="G65" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H66" s="10" t="s">
+      <c r="H65" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I66" s="10" t="s">
+      <c r="I65" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J66" s="10" t="s">
+      <c r="J65" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="K66" s="10" t="s">
+      <c r="K65" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="11">
+        <v>42807</v>
+      </c>
+      <c r="D66" s="6">
+        <v>50</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K66" s="8"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C67" s="11">
-        <v>42807</v>
+        <v>42835</v>
       </c>
       <c r="D67" s="6">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>82</v>
@@ -1655,28 +1668,28 @@
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
       <c r="J67" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K67" s="8"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>65</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C68" s="11">
-        <v>42835</v>
+        <v>42886</v>
       </c>
       <c r="D68" s="6">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>82</v>
@@ -1684,28 +1697,22 @@
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
       <c r="J68" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K68" s="8"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>65</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" s="11">
-        <v>42886</v>
-      </c>
-      <c r="D69" s="6">
-        <v>60</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>80</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
       <c r="F69" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>82</v>
@@ -1713,22 +1720,20 @@
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
       <c r="J69" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K69" s="8"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>65</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>82</v>
@@ -1736,11 +1741,11 @@
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
       <c r="J70" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K70" s="8"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>65</v>
       </c>
@@ -1749,7 +1754,7 @@
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>82</v>
@@ -1757,11 +1762,11 @@
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
       <c r="J71" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K71" s="8"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>65</v>
       </c>
@@ -1770,19 +1775,17 @@
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>82</v>
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
-      <c r="J72" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="J72" s="8"/>
       <c r="K72" s="8"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>65</v>
       </c>
@@ -1791,7 +1794,7 @@
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>82</v>
@@ -1801,7 +1804,7 @@
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>65</v>
       </c>
@@ -1810,7 +1813,7 @@
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>82</v>
@@ -1820,78 +1823,88 @@
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>65</v>
-      </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-    </row>
-    <row r="77" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="9" t="s">
+    <row r="76" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B76" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="D76" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="10" t="s">
+      <c r="E76" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F77" s="10" t="s">
+      <c r="F76" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G77" s="10" t="s">
+      <c r="G76" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H77" s="10" t="s">
+      <c r="H76" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I77" s="10" t="s">
+      <c r="I76" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J77" s="10" t="s">
+      <c r="J76" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="K77" s="10" t="s">
+      <c r="K76" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>70</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="11">
+        <v>42807</v>
+      </c>
+      <c r="D77" s="6">
+        <v>50</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K77" s="8"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>70</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C78" s="11">
-        <v>42807</v>
+        <v>42835</v>
       </c>
       <c r="D78" s="6">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E78" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>82</v>
@@ -1899,28 +1912,28 @@
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
       <c r="J78" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K78" s="8"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>70</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C79" s="11">
-        <v>42835</v>
+        <v>42886</v>
       </c>
       <c r="D79" s="6">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E79" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>82</v>
@@ -1928,28 +1941,22 @@
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
       <c r="J79" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K79" s="8"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>70</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" s="11">
-        <v>42886</v>
-      </c>
-      <c r="D80" s="6">
-        <v>60</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>80</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
       <c r="F80" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>82</v>
@@ -1957,22 +1964,20 @@
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
       <c r="J80" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K80" s="8"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>70</v>
       </c>
-      <c r="B81" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>82</v>
@@ -1980,11 +1985,11 @@
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
       <c r="J81" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K81" s="8"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>70</v>
       </c>
@@ -1993,7 +1998,7 @@
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>82</v>
@@ -2001,11 +2006,11 @@
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
       <c r="J82" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K82" s="8"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>70</v>
       </c>
@@ -2014,19 +2019,17 @@
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>82</v>
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
-      <c r="J83" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="J83" s="8"/>
       <c r="K83" s="8"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>70</v>
       </c>
@@ -2035,7 +2038,7 @@
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>82</v>
@@ -2045,7 +2048,7 @@
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>70</v>
       </c>
@@ -2054,7 +2057,7 @@
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>82</v>
@@ -2063,25 +2066,6 @@
       <c r="I85" s="7"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>70</v>
-      </c>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0.78740157480314965" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
